--- a/ResearchAssistant/resultados/porCentrosDeSalud/ResultadosCorregidos.xlsx
+++ b/ResearchAssistant/resultados/porCentrosDeSalud/ResultadosCorregidos.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94345AB9-D453-4EA4-9A57-7F25D8484330}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
   <si>
     <t>Silhouette score</t>
   </si>
@@ -275,12 +274,45 @@
   </si>
   <si>
     <t>0.28987635018674773</t>
+  </si>
+  <si>
+    <t>1-&gt;[1,5,8,11,12,13,18]</t>
+  </si>
+  <si>
+    <t>2-&gt;[3,4,6,10,16,]</t>
+  </si>
+  <si>
+    <t>3-&gt;[0,7,9,14,15,17]</t>
+  </si>
+  <si>
+    <t>4-&gt;[2,19,20,21]</t>
+  </si>
+  <si>
+    <t>1-&gt;[5,8,12,18,19,]</t>
+  </si>
+  <si>
+    <t>2-&gt;[4,10,16,]</t>
+  </si>
+  <si>
+    <t>3-&gt;[1,2,3,6,11,13,20,21]</t>
+  </si>
+  <si>
+    <t>4-&gt;[0,7,9,14,15,17,]</t>
+  </si>
+  <si>
+    <t>con pca</t>
+  </si>
+  <si>
+    <t>sin pca</t>
+  </si>
+  <si>
+    <t>con r, sin algoritmo genetico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,12 +411,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="style1556058778926" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="style1556058778989" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="style1556058781779" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="style1556058781837" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="style1556058858006" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="style1556058860736" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="style1556058778926" xfId="2"/>
+    <cellStyle name="style1556058778989" xfId="5"/>
+    <cellStyle name="style1556058781779" xfId="1"/>
+    <cellStyle name="style1556058781837" xfId="3"/>
+    <cellStyle name="style1556058858006" xfId="4"/>
+    <cellStyle name="style1556058860736" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -661,11 +693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +708,7 @@
     <col min="15" max="15" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +724,11 @@
       <c r="N1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -709,8 +744,14 @@
       <c r="N2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -726,8 +767,14 @@
       <c r="N3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -740,8 +787,14 @@
       <c r="N4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -751,21 +804,33 @@
       <c r="N5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -782,7 +847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -799,7 +864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -816,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -830,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -844,7 +909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>6</v>
       </c>
@@ -858,7 +923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>10</v>
       </c>
